--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.752908</v>
+        <v>1.532593</v>
       </c>
       <c r="N2">
-        <v>1.505816</v>
+        <v>3.065186</v>
       </c>
       <c r="O2">
-        <v>0.04239205579776523</v>
+        <v>0.0795983245703594</v>
       </c>
       <c r="P2">
-        <v>0.03064402855818915</v>
+        <v>0.05838920196386116</v>
       </c>
       <c r="Q2">
-        <v>3.477748307904001</v>
+        <v>0.192516669695</v>
       </c>
       <c r="R2">
-        <v>20.866489847424</v>
+        <v>0.7700666787800001</v>
       </c>
       <c r="S2">
-        <v>0.04239205579776523</v>
+        <v>0.002107348666693299</v>
       </c>
       <c r="T2">
-        <v>0.03064402855818915</v>
+        <v>0.001039736715299368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6858003633906682</v>
+        <v>0.6326044366842063</v>
       </c>
       <c r="P3">
-        <v>0.743618781590253</v>
+        <v>0.6960687002426557</v>
       </c>
       <c r="Q3">
-        <v>56.261509579056</v>
+        <v>1.530018377171667</v>
       </c>
       <c r="R3">
-        <v>506.353586211504</v>
+        <v>9.18011026303</v>
       </c>
       <c r="S3">
-        <v>0.6858003633906682</v>
+        <v>0.01674806754270743</v>
       </c>
       <c r="T3">
-        <v>0.743618781590253</v>
+        <v>0.01239489768092628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4715666666666667</v>
+        <v>0.8528209999999999</v>
       </c>
       <c r="N4">
-        <v>1.4147</v>
+        <v>2.558463</v>
       </c>
       <c r="O4">
-        <v>0.02655129238326527</v>
+        <v>0.04429298760885536</v>
       </c>
       <c r="P4">
-        <v>0.02878977723790303</v>
+        <v>0.04873655720209673</v>
       </c>
       <c r="Q4">
-        <v>2.1782079312</v>
+        <v>0.107127109915</v>
       </c>
       <c r="R4">
-        <v>19.6038713808</v>
+        <v>0.64276265949</v>
       </c>
       <c r="S4">
-        <v>0.02655129238326527</v>
+        <v>0.001172647400371818</v>
       </c>
       <c r="T4">
-        <v>0.02878977723790303</v>
+        <v>0.0008678520376365303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.3898975</v>
+        <v>3.7338975</v>
       </c>
       <c r="N5">
-        <v>6.779795</v>
+        <v>7.467795</v>
       </c>
       <c r="O5">
-        <v>0.1908662465649254</v>
+        <v>0.1939275366111247</v>
       </c>
       <c r="P5">
-        <v>0.1379718581809916</v>
+        <v>0.142255181408147</v>
       </c>
       <c r="Q5">
-        <v>15.65823486348</v>
+        <v>0.4690335344625</v>
       </c>
       <c r="R5">
-        <v>93.94940918088001</v>
+        <v>1.87613413785</v>
       </c>
       <c r="S5">
-        <v>0.1908662465649254</v>
+        <v>0.005134190171946787</v>
       </c>
       <c r="T5">
-        <v>0.1379718581809916</v>
+        <v>0.002533138492681698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6355266666666667</v>
+        <v>0.2147316666666667</v>
       </c>
       <c r="N6">
-        <v>1.90658</v>
+        <v>0.644195</v>
       </c>
       <c r="O6">
-        <v>0.03578296672940263</v>
+        <v>0.01115252444639089</v>
       </c>
       <c r="P6">
-        <v>0.03879975506202103</v>
+        <v>0.01227137014168456</v>
       </c>
       <c r="Q6">
-        <v>2.93555359968</v>
+        <v>0.02697351830833333</v>
       </c>
       <c r="R6">
-        <v>26.41998239712</v>
+        <v>0.16184110985</v>
       </c>
       <c r="S6">
-        <v>0.03578296672940263</v>
+        <v>0.0002952607061671493</v>
       </c>
       <c r="T6">
-        <v>0.03879975506202103</v>
+        <v>0.0002185163292903844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>0.125615</v>
+      </c>
+      <c r="H7">
+        <v>0.25123</v>
+      </c>
+      <c r="I7">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J7">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7398226666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.219468</v>
+      </c>
+      <c r="O7">
+        <v>0.03842419007906348</v>
+      </c>
+      <c r="P7">
+        <v>0.04227898904155473</v>
+      </c>
+      <c r="Q7">
+        <v>0.09293282427333333</v>
+      </c>
+      <c r="R7">
+        <v>0.5575969456400001</v>
+      </c>
+      <c r="S7">
+        <v>0.001017272237436476</v>
+      </c>
+      <c r="T7">
+        <v>0.0007528620997329548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4.619088000000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>13.857264</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.3304726666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.991418</v>
-      </c>
-      <c r="O7">
-        <v>0.01860707513397334</v>
-      </c>
-      <c r="P7">
-        <v>0.02017579937064208</v>
-      </c>
-      <c r="Q7">
-        <v>1.526482328928</v>
-      </c>
-      <c r="R7">
-        <v>13.738340960352</v>
-      </c>
-      <c r="S7">
-        <v>0.01860707513397334</v>
-      </c>
-      <c r="T7">
-        <v>0.02017579937064208</v>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.532593</v>
+      </c>
+      <c r="N8">
+        <v>3.065186</v>
+      </c>
+      <c r="O8">
+        <v>0.0795983245703594</v>
+      </c>
+      <c r="P8">
+        <v>0.05838920196386116</v>
+      </c>
+      <c r="Q8">
+        <v>7.079181935184002</v>
+      </c>
+      <c r="R8">
+        <v>42.47509161110401</v>
+      </c>
+      <c r="S8">
+        <v>0.0774909759036661</v>
+      </c>
+      <c r="T8">
+        <v>0.05734946524856179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.18022033333333</v>
+      </c>
+      <c r="N9">
+        <v>36.540661</v>
+      </c>
+      <c r="O9">
+        <v>0.6326044366842063</v>
+      </c>
+      <c r="P9">
+        <v>0.6960687002426557</v>
+      </c>
+      <c r="Q9">
+        <v>56.261509579056</v>
+      </c>
+      <c r="R9">
+        <v>506.353586211504</v>
+      </c>
+      <c r="S9">
+        <v>0.6158563691414989</v>
+      </c>
+      <c r="T9">
+        <v>0.6836738025617294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8528209999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.558463</v>
+      </c>
+      <c r="O10">
+        <v>0.04429298760885536</v>
+      </c>
+      <c r="P10">
+        <v>0.04873655720209673</v>
+      </c>
+      <c r="Q10">
+        <v>3.939255247248</v>
+      </c>
+      <c r="R10">
+        <v>35.453297225232</v>
+      </c>
+      <c r="S10">
+        <v>0.04312034020848354</v>
+      </c>
+      <c r="T10">
+        <v>0.04786870516446021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.7338975</v>
+      </c>
+      <c r="N11">
+        <v>7.467795</v>
+      </c>
+      <c r="O11">
+        <v>0.1939275366111247</v>
+      </c>
+      <c r="P11">
+        <v>0.142255181408147</v>
+      </c>
+      <c r="Q11">
+        <v>17.24720113548</v>
+      </c>
+      <c r="R11">
+        <v>103.48320681288</v>
+      </c>
+      <c r="S11">
+        <v>0.188793346439178</v>
+      </c>
+      <c r="T11">
+        <v>0.1397220429154653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2147316666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.644195</v>
+      </c>
+      <c r="O12">
+        <v>0.01115252444639089</v>
+      </c>
+      <c r="P12">
+        <v>0.01227137014168456</v>
+      </c>
+      <c r="Q12">
+        <v>0.99186446472</v>
+      </c>
+      <c r="R12">
+        <v>8.92678018248</v>
+      </c>
+      <c r="S12">
+        <v>0.01085726374022374</v>
+      </c>
+      <c r="T12">
+        <v>0.01205285381239418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7398226666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.219468</v>
+      </c>
+      <c r="O13">
+        <v>0.03842419007906348</v>
+      </c>
+      <c r="P13">
+        <v>0.04227898904155473</v>
+      </c>
+      <c r="Q13">
+        <v>3.417306001728</v>
+      </c>
+      <c r="R13">
+        <v>30.755754015552</v>
+      </c>
+      <c r="S13">
+        <v>0.03740691784162701</v>
+      </c>
+      <c r="T13">
+        <v>0.04152612694182178</v>
       </c>
     </row>
   </sheetData>
